--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H2">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I2">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J2">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>2.406608526234</v>
+        <v>10.24484778467111</v>
       </c>
       <c r="R2">
-        <v>21.659476736106</v>
+        <v>92.20363006203999</v>
       </c>
       <c r="S2">
-        <v>0.0001218070538832857</v>
+        <v>0.0004045924936952289</v>
       </c>
       <c r="T2">
-        <v>0.0001218070538832857</v>
+        <v>0.000404592493695229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H3">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I3">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J3">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>158.1696743843858</v>
+        <v>287.6491976771101</v>
       </c>
       <c r="R3">
-        <v>1423.527069459473</v>
+        <v>2588.842779093991</v>
       </c>
       <c r="S3">
-        <v>0.008005532200365581</v>
+        <v>0.01135992536382521</v>
       </c>
       <c r="T3">
-        <v>0.008005532200365581</v>
+        <v>0.01135992536382521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H4">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I4">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J4">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.8028516003774444</v>
+        <v>5.262068841399221</v>
       </c>
       <c r="R4">
-        <v>7.225664403396999</v>
+        <v>47.35861957259299</v>
       </c>
       <c r="S4">
-        <v>4.063518726931864E-05</v>
+        <v>0.0002078111455909759</v>
       </c>
       <c r="T4">
-        <v>4.063518726931864E-05</v>
+        <v>0.0002078111455909759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H5">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I5">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J5">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>68.15967107127078</v>
+        <v>47.55502001446543</v>
       </c>
       <c r="R5">
-        <v>613.437039641437</v>
+        <v>427.9951801301889</v>
       </c>
       <c r="S5">
-        <v>0.003449804418268755</v>
+        <v>0.001878056613409876</v>
       </c>
       <c r="T5">
-        <v>0.003449804418268755</v>
+        <v>0.001878056613409876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H6">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I6">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J6">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>8.749338145472221</v>
+        <v>29.94781186425233</v>
       </c>
       <c r="R6">
-        <v>78.74404330924999</v>
+        <v>269.530306778271</v>
       </c>
       <c r="S6">
-        <v>0.0004428352560506962</v>
+        <v>0.001182707653402426</v>
       </c>
       <c r="T6">
-        <v>0.0004428352560506961</v>
+        <v>0.001182707653402426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H7">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I7">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J7">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>1.509372353368</v>
+        <v>1.081570208649</v>
       </c>
       <c r="R7">
-        <v>13.584351180312</v>
+        <v>9.734131877841</v>
       </c>
       <c r="S7">
-        <v>7.639472626000384E-05</v>
+        <v>4.271368369948075E-05</v>
       </c>
       <c r="T7">
-        <v>7.639472626000382E-05</v>
+        <v>4.271368369948075E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J8">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>107.154329497134</v>
+        <v>250.8244310497911</v>
       </c>
       <c r="R8">
-        <v>964.3889654742061</v>
+        <v>2257.41987944812</v>
       </c>
       <c r="S8">
-        <v>0.005423463369553302</v>
+        <v>0.009905631022645776</v>
       </c>
       <c r="T8">
-        <v>0.005423463369553301</v>
+        <v>0.009905631022645777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J9">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>7042.510329655058</v>
+        <v>7042.510329655061</v>
       </c>
       <c r="R9">
-        <v>63382.59296689552</v>
+        <v>63382.59296689554</v>
       </c>
       <c r="S9">
-        <v>0.3564466035281059</v>
+        <v>0.2781248561265005</v>
       </c>
       <c r="T9">
-        <v>0.3564466035281059</v>
+        <v>0.2781248561265005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J10">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>35.74699581853857</v>
+        <v>128.8311403966032</v>
       </c>
       <c r="R10">
-        <v>321.722962366847</v>
+        <v>1159.480263569429</v>
       </c>
       <c r="S10">
-        <v>0.001809283146124341</v>
+        <v>0.005087836681834622</v>
       </c>
       <c r="T10">
-        <v>0.001809283146124341</v>
+        <v>0.005087836681834622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J11">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>3034.811758028766</v>
+        <v>1164.288732189558</v>
       </c>
       <c r="R11">
-        <v>27313.30582225889</v>
+        <v>10478.59858970602</v>
       </c>
       <c r="S11">
-        <v>0.1536026633772077</v>
+        <v>0.04598042757088676</v>
       </c>
       <c r="T11">
-        <v>0.1536026633772076</v>
+        <v>0.04598042757088676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>460.130753</v>
       </c>
       <c r="I12">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J12">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>389.5645894635278</v>
+        <v>733.2117596980404</v>
       </c>
       <c r="R12">
-        <v>3506.08130517175</v>
+        <v>6598.905837282364</v>
       </c>
       <c r="S12">
-        <v>0.01971725539178538</v>
+        <v>0.02895621101435628</v>
       </c>
       <c r="T12">
-        <v>0.01971725539178538</v>
+        <v>0.02895621101435628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>460.130753</v>
       </c>
       <c r="I13">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J13">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>67.204857260168</v>
+        <v>26.480064704397</v>
       </c>
       <c r="R13">
-        <v>604.8437153415119</v>
+        <v>238.320582339573</v>
       </c>
       <c r="S13">
-        <v>0.003401477880707826</v>
+        <v>0.001045758378957403</v>
       </c>
       <c r="T13">
-        <v>0.003401477880707825</v>
+        <v>0.001045758378957403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H14">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>64.05762221271002</v>
+        <v>388.6926942849689</v>
       </c>
       <c r="R14">
-        <v>576.5185999143901</v>
+        <v>3498.23424856472</v>
       </c>
       <c r="S14">
-        <v>0.003242185073078253</v>
+        <v>0.01535036437507416</v>
       </c>
       <c r="T14">
-        <v>0.003242185073078252</v>
+        <v>0.01535036437507416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H15">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>4210.062890069388</v>
+        <v>10913.49954670067</v>
       </c>
       <c r="R15">
-        <v>37890.5660106245</v>
+        <v>98221.49592030606</v>
       </c>
       <c r="S15">
-        <v>0.2130863211496997</v>
+        <v>0.4309990825972166</v>
       </c>
       <c r="T15">
-        <v>0.2130863211496996</v>
+        <v>0.4309990825972167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H16">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>21.36980898606167</v>
+        <v>199.6445197103637</v>
       </c>
       <c r="R16">
-        <v>192.328280874555</v>
+        <v>1796.800677393274</v>
       </c>
       <c r="S16">
-        <v>0.001081602365430846</v>
+        <v>0.007884419151943061</v>
       </c>
       <c r="T16">
-        <v>0.001081602365430846</v>
+        <v>0.007884419151943062</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H17">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I17">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J17">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>1814.232107977462</v>
+        <v>1804.252170916134</v>
       </c>
       <c r="R17">
-        <v>16328.08897179716</v>
+        <v>16238.2695382452</v>
       </c>
       <c r="S17">
-        <v>0.09182476739538932</v>
+        <v>0.07125404890624477</v>
       </c>
       <c r="T17">
-        <v>0.09182476739538931</v>
+        <v>0.0712540489062448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H18">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I18">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J18">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>232.8844892820834</v>
+        <v>1136.229246751009</v>
       </c>
       <c r="R18">
-        <v>2095.96040353875</v>
+        <v>10226.06322075908</v>
       </c>
       <c r="S18">
-        <v>0.01178711586256801</v>
+        <v>0.04487229425119274</v>
       </c>
       <c r="T18">
-        <v>0.01178711586256801</v>
+        <v>0.04487229425119275</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H19">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I19">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J19">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>40.17554285892</v>
+        <v>41.035108309482</v>
       </c>
       <c r="R19">
-        <v>361.57988573028</v>
+        <v>369.315974785338</v>
       </c>
       <c r="S19">
-        <v>0.002033427730543534</v>
+        <v>0.001620570373415277</v>
       </c>
       <c r="T19">
-        <v>0.002033427730543534</v>
+        <v>0.001620570373415277</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H20">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>12.708137555808</v>
+        <v>11.13278487776889</v>
       </c>
       <c r="R20">
-        <v>114.373238002272</v>
+        <v>100.19506389992</v>
       </c>
       <c r="S20">
-        <v>0.0006432042349815899</v>
+        <v>0.0004396591623555926</v>
       </c>
       <c r="T20">
-        <v>0.0006432042349815899</v>
+        <v>0.0004396591623555926</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H21">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>835.2176755475749</v>
+        <v>312.5802066862909</v>
       </c>
       <c r="R21">
-        <v>7516.959079928175</v>
+        <v>2813.221860176619</v>
       </c>
       <c r="S21">
-        <v>0.04227334994482777</v>
+        <v>0.01234450798695166</v>
       </c>
       <c r="T21">
-        <v>0.04227334994482777</v>
+        <v>0.01234450798695166</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H22">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I22">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J22">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>4.239471631251555</v>
+        <v>5.718140635623777</v>
       </c>
       <c r="R22">
-        <v>38.155244681264</v>
+        <v>51.463265720614</v>
       </c>
       <c r="S22">
-        <v>0.0002145748025885241</v>
+        <v>0.0002258224648811916</v>
       </c>
       <c r="T22">
-        <v>0.0002145748025885241</v>
+        <v>0.0002258224648811916</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H23">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I23">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J23">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>359.9183108886382</v>
+        <v>51.67668849811356</v>
       </c>
       <c r="R23">
-        <v>3239.264797997744</v>
+        <v>465.090196483022</v>
       </c>
       <c r="S23">
-        <v>0.0182167513370352</v>
+        <v>0.002040830738026873</v>
       </c>
       <c r="T23">
-        <v>0.0182167513370352</v>
+        <v>0.002040830738026873</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H24">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I24">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J24">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>46.20102998177777</v>
+        <v>32.54343588622866</v>
       </c>
       <c r="R24">
-        <v>415.809269836</v>
+        <v>292.890922976058</v>
       </c>
       <c r="S24">
-        <v>0.002338399156783557</v>
+        <v>0.001285214788483336</v>
       </c>
       <c r="T24">
-        <v>0.002338399156783557</v>
+        <v>0.001285214788483336</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H25">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I25">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J25">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>7.970266572415999</v>
+        <v>1.175311602102</v>
       </c>
       <c r="R25">
-        <v>71.73239915174399</v>
+        <v>10.577804418918</v>
       </c>
       <c r="S25">
-        <v>0.0004034036609060156</v>
+        <v>4.641574593962095E-05</v>
       </c>
       <c r="T25">
-        <v>0.0004034036609060156</v>
+        <v>4.641574593962095E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H26">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I26">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J26">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>6.119834030676001</v>
+        <v>10.12178249684889</v>
       </c>
       <c r="R26">
-        <v>55.07850627608401</v>
+        <v>91.09604247164</v>
       </c>
       <c r="S26">
-        <v>0.0003097466602504825</v>
+        <v>0.0003997323637319694</v>
       </c>
       <c r="T26">
-        <v>0.0003097466602504824</v>
+        <v>0.0003997323637319694</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H27">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I27">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J27">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>402.2142136399913</v>
+        <v>284.193838256648</v>
       </c>
       <c r="R27">
-        <v>3619.927922759922</v>
+        <v>2557.744544309831</v>
       </c>
       <c r="S27">
-        <v>0.02035749805562941</v>
+        <v>0.01122346530956946</v>
       </c>
       <c r="T27">
-        <v>0.02035749805562941</v>
+        <v>0.01122346530956946</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H28">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I28">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J28">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>2.041594423028667</v>
+        <v>5.198858725434777</v>
       </c>
       <c r="R28">
-        <v>18.374349807258</v>
+        <v>46.789728528913</v>
       </c>
       <c r="S28">
-        <v>0.0001033323862950067</v>
+        <v>0.0002053148333975351</v>
       </c>
       <c r="T28">
-        <v>0.0001033323862950067</v>
+        <v>0.0002053148333975352</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H29">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I29">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J29">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>173.3251877048687</v>
+        <v>46.98376972861656</v>
       </c>
       <c r="R29">
-        <v>1559.926689343818</v>
+        <v>422.853927557549</v>
       </c>
       <c r="S29">
-        <v>0.008772606864787931</v>
+        <v>0.001855496631794382</v>
       </c>
       <c r="T29">
-        <v>0.008772606864787928</v>
+        <v>0.001855496631794382</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H30">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I30">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J30">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>22.24894358383333</v>
+        <v>29.58806654014567</v>
       </c>
       <c r="R30">
-        <v>200.2404922545</v>
+        <v>266.292598861311</v>
       </c>
       <c r="S30">
-        <v>0.001126098507680041</v>
+        <v>0.001168500486948153</v>
       </c>
       <c r="T30">
-        <v>0.001126098507680041</v>
+        <v>0.001168500486948153</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H31">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I31">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J31">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>3.838226363952</v>
+        <v>1.068577946409</v>
       </c>
       <c r="R31">
-        <v>34.54403727556799</v>
+        <v>9.617201517681</v>
       </c>
       <c r="S31">
-        <v>0.0001942663463682463</v>
+        <v>4.220058951898067E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001942663463682463</v>
+        <v>4.220058951898067E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H32">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I32">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J32">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>5.840258402604</v>
+        <v>8.53897624788889</v>
       </c>
       <c r="R32">
-        <v>52.562325623436</v>
+        <v>76.850786231</v>
       </c>
       <c r="S32">
-        <v>0.0002955963390736894</v>
+        <v>0.0003372237212647474</v>
       </c>
       <c r="T32">
-        <v>0.0002955963390736894</v>
+        <v>0.0003372237212647474</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H33">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I33">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J33">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>383.8396481151375</v>
+        <v>239.7526755218639</v>
       </c>
       <c r="R33">
-        <v>3454.556833036238</v>
+        <v>2157.774079696776</v>
       </c>
       <c r="S33">
-        <v>0.01942749566073628</v>
+        <v>0.009468382049036765</v>
       </c>
       <c r="T33">
-        <v>0.01942749566073628</v>
+        <v>0.009468382049036765</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H34">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I34">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J34">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>1.948327180775778</v>
+        <v>4.385880766202777</v>
       </c>
       <c r="R34">
-        <v>17.534944626982</v>
+        <v>39.472926895825</v>
       </c>
       <c r="S34">
-        <v>9.861179801535786E-05</v>
+        <v>0.0001732084725458798</v>
       </c>
       <c r="T34">
-        <v>9.861179801535786E-05</v>
+        <v>0.0001732084725458798</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H35">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I35">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J35">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>165.4070811074691</v>
+        <v>39.63662466308055</v>
       </c>
       <c r="R35">
-        <v>1488.663729967222</v>
+        <v>356.729621967725</v>
       </c>
       <c r="S35">
-        <v>0.008371843206532165</v>
+        <v>0.00156534105251349</v>
       </c>
       <c r="T35">
-        <v>0.008371843206532165</v>
+        <v>0.001565341052513491</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H36">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I36">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J36">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>21.23253327838889</v>
+        <v>24.96119606264167</v>
       </c>
       <c r="R36">
-        <v>191.0927995055</v>
+        <v>224.650764563775</v>
       </c>
       <c r="S36">
-        <v>0.001074654351518699</v>
+        <v>0.000985774778978225</v>
       </c>
       <c r="T36">
-        <v>0.001074654351518699</v>
+        <v>0.0009857747789782253</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H37">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I37">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J37">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>3.662882630607999</v>
+        <v>0.901477749225</v>
       </c>
       <c r="R37">
-        <v>32.965943675472</v>
+        <v>8.113299743025001</v>
       </c>
       <c r="S37">
-        <v>0.0001853915736984463</v>
+        <v>3.560142017096977E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001853915736984463</v>
+        <v>3.560142017096977E-05</v>
       </c>
     </row>
   </sheetData>
